--- a/Business rules.xlsx
+++ b/Business rules.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="As_a">Lists!$E$2:$E$10</definedName>
-    <definedName name="Browser">Lists!$C$2:$C$10</definedName>
+    <definedName name="Browser">Lists!$C$2:$C$8</definedName>
     <definedName name="Feature">Lists!$A$2:$A$1048576</definedName>
+    <definedName name="I_am">Lists!$E$2:$E$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,26 +30,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>#TestID</t>
   </si>
   <si>
-    <t>As a</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>Feature</t>
   </si>
   <si>
-    <t>Context</t>
-  </si>
-  <si>
     <t>System</t>
   </si>
   <si>
@@ -59,34 +47,103 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
-    <t>Geolocate me</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Load weather from  API</t>
-  </si>
-  <si>
-    <t>Show link to source</t>
-  </si>
-  <si>
     <t>Display random Link</t>
   </si>
   <si>
     <t>Open Random Page</t>
   </si>
   <si>
-    <t>Display search box</t>
-  </si>
-  <si>
-    <t>Display search button</t>
+    <t>Send a search request</t>
+  </si>
+  <si>
+    <t>Display a search result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given </t>
+  </si>
+  <si>
+    <t>I use a browser</t>
+  </si>
+  <si>
+    <t>&lt;browser&gt;</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>&lt;variable&gt;</t>
+  </si>
+  <si>
+    <t>When</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>Then</t>
+  </si>
+  <si>
+    <t>I_am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am the </t>
+  </si>
+  <si>
+    <t>&lt;I_am&gt;</t>
+  </si>
+  <si>
+    <t>I am on the home page</t>
+  </si>
+  <si>
+    <t>I click the "Random Page" link</t>
+  </si>
+  <si>
+    <t>I can see a clickable "Random Page" lick</t>
+  </si>
+  <si>
+    <t>I am send to a new browser window</t>
+  </si>
+  <si>
+    <t>a random wikipedia page is loaded</t>
+  </si>
+  <si>
+    <t>I can see an input box for "Search"</t>
+  </si>
+  <si>
+    <t>I can see a "Search" button</t>
+  </si>
+  <si>
+    <t>Display search box &amp; button</t>
+  </si>
+  <si>
+    <t>I fill &lt;text&gt; into the form</t>
+  </si>
+  <si>
+    <t>&lt;text&gt;</t>
+  </si>
+  <si>
+    <t>I press the "Search" button</t>
+  </si>
+  <si>
+    <t>I can see a list of Wiki page as a result</t>
+  </si>
+  <si>
+    <t>The user press "Search" button</t>
+  </si>
+  <si>
+    <t>The search form is not empty</t>
+  </si>
+  <si>
+    <t>I call the Wiki API</t>
+  </si>
+  <si>
+    <t>I receive a list of Wiki pages</t>
+  </si>
+  <si>
+    <t>I display the list in cards on the page</t>
   </si>
 </sst>
 </file>
@@ -415,158 +472,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="25.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.265625" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.86328125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="86.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.06640625" customWidth="1"/>
+    <col min="7" max="7" width="25.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <f>IF(ISTEXT(A2),1,A2+1)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <f t="shared" ref="A4:A18" si="0">IF(ISTEXT(A3),1,A3+1)</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <f>IF(ISTEXT(A1),1,A1+1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <f t="shared" ref="A3:A17" si="0">IF(ISTEXT(A2),1,A2+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
       <formula1>Feature</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576">
-      <formula1 xml:space="preserve"> Browser</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D18">
+      <formula1>Browser</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Update lists !" sqref="D3:D1048576">
-      <formula1 xml:space="preserve"> As_a</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F18">
+      <formula1>I_am</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -575,9 +822,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -588,57 +835,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
